--- a/tradept/Excel/Localization/english/D道具列表_Items_Mounts_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_Mounts_hotfix.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44F90C-BB00-4A2F-A3A6-1C071748800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="main" sheetId="1" r:id="rId4"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="fMciwIoDHNDB/npQyY8PZp9UQG4/I0hRIrQP5EQXo7I="/>
@@ -16,34 +25,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D24D1598-C7E1-4F37-A846-E40C925D5F89}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAA0CQzxdc
-主要针对装备时角色需达到的需求    (2023-07-03 21:44:43)
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">主要针对装备时角色需达到的需求:
 目前可支持的需求字段含义如下：
 role_level:角色等级
-[所有定义在角色属性字段表中的字段]</t>
+[所有定义在角色属性字段表中的字段]
+</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{40D1323D-4A0E-4560-A6B3-538BF6681765}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAA0CQzxdY
-主要针对装备时角色需达到的需求    (2023-07-03 21:44:43)
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">主要针对装备时角色需达到的需求:
 目前可支持的需求字段含义如下：
 role_level:角色等级
-[所有定义在角色属性字段表中的字段]</t>
+[所有定义在角色属性字段表中的字段]
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi/FqWkJ4uXEQSnYY1fj0DCfwoksg=="/>
     </ext>
   </extLst>
@@ -77,117 +96,69 @@
     <t>骆驼</t>
   </si>
   <si>
-    <t>Camello</t>
-  </si>
-  <si>
     <t>沙漠地区常见的骆驼，商队常用的坐骑（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un camello comúnmente visto en áreas desérticas. Es el soporte preferido para una caravana. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>褐马</t>
   </si>
   <si>
-    <t>Caballo marrón</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]1</t>
   </si>
   <si>
     <t>草地区域常见的褐色马（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un caballo marrón comúnmente visto en llanuras cubiertas de hierba. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>黑马</t>
   </si>
   <si>
-    <t>Caballo negro</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]5</t>
   </si>
   <si>
     <t>黑崖区域常见的黑色马（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un caballo negro comúnmente visto a lo largo de los acantilados de la Umbra. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>白马</t>
   </si>
   <si>
-    <t>Caballo blanco</t>
-  </si>
-  <si>
     <t>双月山谷区域常见的白色马（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un caballo blanco comúnmente visto en el valle de Twinluna. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>雪狼</t>
   </si>
   <si>
-    <t>Lobo ártico</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]8</t>
   </si>
   <si>
     <t>大雪山常见的狼，已被雪狼族所驯化（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un lobo ártico de las montañas nevadas de Zagros. Ha sido domesticado por el pueblo DIB. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>火魇</t>
   </si>
   <si>
-    <t>Pesadilla</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]12</t>
   </si>
   <si>
     <t>火魔人从虚无之地中召唤出来的魇灵（战斗中不可用）</t>
   </si>
   <si>
-    <t>El infierno del infierno convocó una pesadilla del infierno. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>雄鹰</t>
   </si>
   <si>
-    <t>Águila</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]17</t>
   </si>
   <si>
     <t>常见的雄鹰，已被雄鹰族所驯化（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un águila común domesticado por el Nasir. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>凤凰</t>
   </si>
   <si>
-    <t>Fénix</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]20</t>
   </si>
   <si>
     <t>传说的百鸟之王（战斗中不可用）</t>
   </si>
   <si>
-    <t>El legendario rey de todas las aves. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>豹子</t>
   </si>
   <si>
@@ -200,9 +171,6 @@
     <t>凶猛的豹子，速度极快，驯化之后可以当做坐骑（战斗中不可用）</t>
   </si>
   <si>
-    <t>El leopardo feroz se puede usar como soporte después de la domesticación. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>雪怪</t>
   </si>
   <si>
@@ -212,167 +180,238 @@
     <t>传说中出没雪山中的雪怪，但是其实只是某种魔化的熊而已（战斗中不可用）</t>
   </si>
   <si>
-    <t>La leyenda dice que el Yeti es un monstruo de las montañas nevadas, pero, en verdad, son solo osos que han sido maldecidos por un Djinn. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>熊</t>
   </si>
   <si>
-    <t>Oso</t>
-  </si>
-  <si>
     <t>被驯化的棕熊（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un oso marrón domesticado. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>铁甲马1</t>
   </si>
   <si>
     <t>铁甲马</t>
   </si>
   <si>
-    <t>Caballo blindado</t>
-  </si>
-  <si>
     <t>身披铠甲的强壮军马（战斗中不可用）</t>
   </si>
   <si>
-    <t>Un fuerte caballo de guerra de pura sangre en la armadura. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>铁甲马2</t>
   </si>
   <si>
-    <t>Un fuerte pura sangre en la armadura. No se puede usar durante la batalla.</t>
-  </si>
-  <si>
     <t>霹雳</t>
   </si>
   <si>
     <t>“霹雳”</t>
   </si>
   <si>
-    <t>Rayo</t>
-  </si>
-  <si>
     <t>[%role_level%][&gt;=]15</t>
   </si>
   <si>
     <t>骑士将军尤萨玛的坐骑，一匹传奇战马的英魂（战斗中不可用）</t>
   </si>
   <si>
-    <t>Una vez guardado como el Monte del Caballero General YURSA, su alma ahora puede ser convocada en su servicio. No se puede usar durante la batalla.</t>
+    <t>Camelo</t>
+  </si>
+  <si>
+    <t>Um camelo comumente visto em áreas desérticas. É a montaria preferida de uma caravana. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Cavalo Marrom</t>
+  </si>
+  <si>
+    <t>Um cavalo marrom comumente encontrado em planícies verdejantes. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Cavalo Preto</t>
+  </si>
+  <si>
+    <t>Um cavalo preto comumente visto ao longo dos penhascos de Umbra. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Cavalo Branco</t>
+  </si>
+  <si>
+    <t>Um cavalo branco comumente visto no Vale de Twinluna. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Lobo Ártico</t>
+  </si>
+  <si>
+    <t>Um lobo ártico das montanhas nevadas de Zagros. Foi domesticado pelo povo Dhib. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Um pesadelo foi convocado pelo Ifrit do próprio Inferno. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Águia</t>
+  </si>
+  <si>
+    <t>Uma águia comum domesticada pelos Nasir. Não pode ser usada em batalha.</t>
+  </si>
+  <si>
+    <t>Fênix</t>
+  </si>
+  <si>
+    <t>O lendário rei de todas as aves. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>O leopardo feroz pode ser usado como montaria após a domesticação. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>A lenda diz que o yeti é um monstro das montanhas nevadas, mas, na verdade, são apenas ursos amaldiçoados por um djinn. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Urso</t>
+  </si>
+  <si>
+    <t>Um urso marrom domesticado. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Cavalo Blindado</t>
+  </si>
+  <si>
+    <t>Um cavalo de guerra puro-sangue forte em armadura. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Um puro-sangue forte em armadura. Não pode ser usado em batalha.</t>
+  </si>
+  <si>
+    <t>Relâmpago</t>
+  </si>
+  <si>
+    <t>Antes mantido como a montaria do General Cavaleiro Yursa, sua alma agora pode ser convocada para servi-lo. Não pode ser usado em batalha.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF08080"/>
-        <bgColor rgb="FFF08080"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEA04"/>
-        <bgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -562,23 +601,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="121.5">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -609,309 +650,309 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:7" ht="81">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="94.5">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="6" spans="1:7" ht="108">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="108">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    <row r="8" spans="1:7" ht="108">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.5">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="135">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="162">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
+      <c r="F12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
+    <row r="13" spans="1:7" ht="81">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="14" spans="1:7" ht="81">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    <row r="15" spans="1:7" ht="135">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>70</v>
@@ -1898,10 +1939,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tradept/Excel/Localization/english/D道具列表_Items_Mounts_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_Mounts_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44F90C-BB00-4A2F-A3A6-1C071748800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786566FF-2E19-40B3-9098-1CBB25BF010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,13 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="143.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
